--- a/media/sales_report.xlsx
+++ b/media/sales_report.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,26 +443,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -617,7 +617,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>맹훈</t>
+          <t>김승국</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -632,69 +632,69 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>64862</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>57785</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3717572</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>3129882</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>747141</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>858250</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>115%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N3" s="2" t="n">
-        <v>145050</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>164856</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>114%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>유시완</t>
+          <t>김성진</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -720,58 +720,58 @@
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2543135</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2618598</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>103%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1801385</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2082396</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>116%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="n">
-        <v>347385</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>298721</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>심재용</t>
+          <t>심민우</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -786,69 +786,69 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>75878</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>81190</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>107%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>6616862</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>6628207</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1528945</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1742550</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>114%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3760</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45746</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1217%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>신준희</t>
+          <t>이서현</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>유광훈</t>
+          <t>박웅균</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -940,69 +940,69 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2466</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>594%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>33636452</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>34496387</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>103%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>4338803</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>5038663</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>116%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1672558</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1298806</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>정태민</t>
+          <t>이진우</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1017,69 +1017,69 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>386131</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>208359</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>3162697</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>2381572</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>883710</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>880585</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="n">
-        <v>58010</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>53050</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>현남규</t>
+          <t>엄현준</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1094,330 +1094,214 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1094257</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>665665</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4011348</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>4297265</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>107%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1141489</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1425649</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>125%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>963397</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>987336</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>102%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>박중재</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1515153</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1735228</v>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>115%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>396601</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>263012</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>66%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>343460</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>266530</v>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>78%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>927700</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>962786</v>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>104%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>-11</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10"/>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>장현민</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1051790</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1010239</v>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>976033</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>860542</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>279690</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>227339</v>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>81%</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>684524</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>753621</v>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>110%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>팀원</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>전매체 총 매출</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>주력매체</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>DB수집방식</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>영업방식</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>전월매출</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>당월누적매출</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>예상매출</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>예상증감</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>팀원</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>전매체 총 매출</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>주력매체</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>DB수집방식</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>영업방식</t>
-        </is>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>김승국</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>전월매출</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>당월누적매출</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>예상매출</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>예상증감</t>
-        </is>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>김성진</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>맹훈</t>
+          <t>심민우</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>17996181</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>16418751</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1577430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>유시완</t>
+          <t>이서현</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>16361576</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>19220906</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2859330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>심재용</t>
+          <t>박웅균</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>35223004</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>32639704</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-2583300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>신준희</t>
+          <t>이진우</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -1436,110 +1320,34 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>유광훈</t>
+          <t>엄현준</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>135607271</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>172290801</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>36683530</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>정태민</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>17466950</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>13371947</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>-4095003</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>현남규</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>76224768</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>61349083</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>-14875685</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>박중재</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>15223955</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>14077363</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-1146592</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>장현민</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>12608682</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>12584169</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>-24513</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>

--- a/media/sales_report.xlsx
+++ b/media/sales_report.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,17 +445,17 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
@@ -617,7 +617,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>김승국</t>
+          <t>맹훈</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>김성진</t>
+          <t>유시완</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="Q4" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="R4" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>2</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>심민우</t>
+          <t>심재용</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>0</v>
@@ -848,7 +848,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>이서현</t>
+          <t>신준희</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>박웅균</t>
+          <t>유광훈</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>이진우</t>
+          <t>정태민</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>엄현준</t>
+          <t>현남규</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>0</v>
@@ -1153,201 +1153,790 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>박중재</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>장현민</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>팀원</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>전매체 총 매출</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>주력매체</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>DB수집방식</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>영업방식</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>전월매출</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>당월누적매출</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>예상매출</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>예상증감</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>김승국</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>업무</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>평균콜수</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>평균콜시간</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>평균콜수</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>평균콜시간</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>팀원</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>시간대별 주간 평균통화량</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>김성진</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>집중시간</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>전전주</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>10시 ~ 11시</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>11시 ~ 12시</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>1시 ~ 2시</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>2시 ~ 3시</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>3시 ~ 4시</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>4시 ~ 5시</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>5시 ~ 6시</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>심민우</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0</v>
+          <t>맹훈</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>00:01:29</t>
+        </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>00:01:19</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>맹훈</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>이서현</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0</v>
+          <t>유시완</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>392</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>00:00:48</t>
+        </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>773</v>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>00:00:45</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>유시완</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>박웅균</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0</v>
+          <t>심재용</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>00:00:49</t>
+        </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>00:00:33</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>심재용</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>이진우</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0</v>
+          <t>신준희</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>신준희</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>엄현준</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0</v>
+          <t>유광훈</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>00:00:31</t>
+        </is>
       </c>
       <c r="E19" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>00:00:20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>유광훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>정태민</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>00:01:02</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>00:00:53</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>정태민</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>현남규</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>00:00:45</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>00:00:39</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>현남규</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>박중재</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>00:02:29</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>박중재</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>장현민</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>00:03:04</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>장현민</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>팀원</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>전매체 총 매출</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>주력매체</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>DB수집방식</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>영업방식</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>전월매출</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>당월누적매출</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>예상매출</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>예상증감</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>맹훈</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>유시완</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>심재용</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>신준희</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>유광훈</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>정태민</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>현남규</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>박중재</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>장현민</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
